--- a/artfynd/A 54112-2022.xlsx
+++ b/artfynd/A 54112-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2669,6 +2669,266 @@
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111957066</v>
+      </c>
+      <c r="B17" t="n">
+        <v>55652</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>208255</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Skogsödla</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Zootoca vivipara</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Jacquin, 1787)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>årsunge</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Sannahed sandtag Backar och Lund, Sannahed, Nrk</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>509365.3999776145</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6551082.436783144</v>
+      </c>
+      <c r="S17" t="n">
+        <v>55</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Kumla</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Kumla</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>David Bartholdsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>David Bartholdsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111957069</v>
+      </c>
+      <c r="B18" t="n">
+        <v>55652</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>208255</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skogsödla</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Zootoca vivipara</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Jacquin, 1787)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Sannahed sandtag Äng, Sannahed, Nrk</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>509498.1630738945</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6551086.360099105</v>
+      </c>
+      <c r="S18" t="n">
+        <v>75</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Kumla</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Kumla</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>David Bartholdsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>David Bartholdsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54112-2022.xlsx
+++ b/artfynd/A 54112-2022.xlsx
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>509498.1630738945</v>
+        <v>509498</v>
       </c>
       <c r="R16" t="n">
-        <v>6551086.360099105</v>
+        <v>6551086</v>
       </c>
       <c r="S16" t="n">
         <v>75</v>
@@ -2631,19 +2631,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2728,10 +2718,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>509365.3999776145</v>
+        <v>509365</v>
       </c>
       <c r="R17" t="n">
-        <v>6551082.436783144</v>
+        <v>6551082</v>
       </c>
       <c r="S17" t="n">
         <v>55</v>
@@ -2761,19 +2751,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2858,10 +2838,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>509498.1630738945</v>
+        <v>509498</v>
       </c>
       <c r="R18" t="n">
-        <v>6551086.360099105</v>
+        <v>6551086</v>
       </c>
       <c r="S18" t="n">
         <v>75</v>
@@ -2891,19 +2871,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 54112-2022.xlsx
+++ b/artfynd/A 54112-2022.xlsx
@@ -2661,10 +2661,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111957066</v>
+        <v>111957069</v>
       </c>
       <c r="B17" t="n">
-        <v>55652</v>
+        <v>55684</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>årsunge</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -2714,17 +2714,17 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sannahed sandtag Backar och Lund, Sannahed, Nrk</t>
+          <t>Sannahed sandtag Äng, Sannahed, Nrk</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>509365</v>
+        <v>509498</v>
       </c>
       <c r="R17" t="n">
-        <v>6551082</v>
+        <v>6551086</v>
       </c>
       <c r="S17" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111957069</v>
+        <v>111957066</v>
       </c>
       <c r="B18" t="n">
-        <v>55652</v>
+        <v>55684</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>årsunge</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -2834,17 +2834,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sannahed sandtag Äng, Sannahed, Nrk</t>
+          <t>Sannahed sandtag Backar och Lund, Sannahed, Nrk</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>509498</v>
+        <v>509365</v>
       </c>
       <c r="R18" t="n">
-        <v>6551086</v>
+        <v>6551082</v>
       </c>
       <c r="S18" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
